--- a/gg/1лфба.xlsx
+++ b/gg/1лфба.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bomjz\Desktop\7-semestr.git\gg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1A433C-D490-4801-98C7-D2C3FB5E546D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780B8A0E-2249-4031-B8EA-5CB6D0EA975F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2652" yWindow="3216" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Лист1!$AF$483:$AF$544</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Лист1!$B$483:$B$544</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Лист1!$I$483:$I$544</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Лист1!$N$483:$N$544</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Лист1!$U$483:$U$544</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Лист1!$Y$483:$Y$544</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -10432,7 +10440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B471" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:C38"/>
     </sheetView>
   </sheetViews>
